--- a/data/output/FV2410_FV2404/UTILMD/55145.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55145.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11010" uniqueCount="689">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11031" uniqueCount="689">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2227,6 +2227,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U483" totalsRowShown="0">
+  <autoFilter ref="A1:U483"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2516,7 +2546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25964,5 +25997,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55145.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55145.xlsx
@@ -4083,7 +4083,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6625,7 +6625,7 @@
         <v>634</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6791,7 +6791,7 @@
         <v>635</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -7011,7 +7011,7 @@
         <v>637</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7215,7 +7215,7 @@
         <v>639</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7419,7 +7419,7 @@
         <v>641</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7623,7 +7623,7 @@
         <v>643</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7827,7 +7827,7 @@
         <v>644</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8423,7 +8423,7 @@
         <v>646</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -8985,7 +8985,7 @@
         <v>647</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -10055,7 +10055,7 @@
         <v>648</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -10367,7 +10367,7 @@
         <v>649</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -10587,7 +10587,7 @@
         <v>651</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10791,7 +10791,7 @@
         <v>652</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -11541,7 +11541,7 @@
         <v>653</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -12103,7 +12103,7 @@
         <v>654</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12631,7 +12631,7 @@
         <v>656</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -13043,7 +13043,7 @@
         <v>657</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -13243,7 +13243,7 @@
         <v>658</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -13443,7 +13443,7 @@
         <v>659</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -13961,7 +13961,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -14107,7 +14107,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -14479,7 +14479,7 @@
         <v>660</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -14783,7 +14783,7 @@
         <v>661</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15501,7 +15501,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -15699,7 +15699,7 @@
         <v>662</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16227,7 +16227,7 @@
         <v>659</v>
       </c>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -16529,7 +16529,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -16675,7 +16675,7 @@
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -16831,7 +16831,7 @@
         <v>659</v>
       </c>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -16979,7 +16979,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -17135,7 +17135,7 @@
         <v>664</v>
       </c>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -17755,7 +17755,7 @@
         <v>665</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -18065,7 +18065,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -18527,7 +18527,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18881,7 +18881,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -19079,7 +19079,7 @@
         <v>666</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -19227,7 +19227,7 @@
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -19385,7 +19385,7 @@
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -19795,7 +19795,7 @@
         <v>667</v>
       </c>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -20107,7 +20107,7 @@
         <v>668</v>
       </c>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="K317" s="2"/>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -21115,7 +21115,7 @@
       </c>
       <c r="K333" s="2"/>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21275,7 +21275,7 @@
         <v>670</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -21489,7 +21489,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="K343" s="2"/>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -21861,7 +21861,7 @@
         <v>671</v>
       </c>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -22165,7 +22165,7 @@
         <v>672</v>
       </c>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -22315,7 +22315,7 @@
         <v>673</v>
       </c>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="K360" s="2"/>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -22697,7 +22697,7 @@
         <v>675</v>
       </c>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -22863,7 +22863,7 @@
         <v>676</v>
       </c>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -23023,7 +23023,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23241,7 +23241,7 @@
         <v>678</v>
       </c>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23653,7 +23653,7 @@
         <v>679</v>
       </c>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -23853,7 +23853,7 @@
         <v>658</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24053,7 +24053,7 @@
         <v>680</v>
       </c>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -24411,7 +24411,7 @@
         <v>681</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -24611,7 +24611,7 @@
         <v>682</v>
       </c>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -24869,7 +24869,7 @@
         <v>683</v>
       </c>
       <c r="L405" s="4"/>
-      <c r="M405" s="2" t="s">
+      <c r="M405" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N405" s="2" t="s">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="K408" s="2"/>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="K411" s="2"/>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -25319,7 +25319,7 @@
         <v>684</v>
       </c>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="K417" s="2"/>
       <c r="L417" s="4"/>
-      <c r="M417" s="2" t="s">
+      <c r="M417" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N417" s="2" t="s">
@@ -25801,7 +25801,7 @@
         <v>686</v>
       </c>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -25949,7 +25949,7 @@
       </c>
       <c r="K426" s="2"/>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="4"/>
-      <c r="M429" s="2" t="s">
+      <c r="M429" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N429" s="2" t="s">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -26407,7 +26407,7 @@
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -26779,7 +26779,7 @@
         <v>683</v>
       </c>
       <c r="L442" s="4"/>
-      <c r="M442" s="2" t="s">
+      <c r="M442" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N442" s="2" t="s">
@@ -26927,7 +26927,7 @@
       </c>
       <c r="K445" s="2"/>
       <c r="L445" s="4"/>
-      <c r="M445" s="2" t="s">
+      <c r="M445" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N445" s="2" t="s">
@@ -27081,7 +27081,7 @@
       </c>
       <c r="K448" s="2"/>
       <c r="L448" s="4"/>
-      <c r="M448" s="2" t="s">
+      <c r="M448" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N448" s="2" t="s">
@@ -27227,7 +27227,7 @@
       </c>
       <c r="K451" s="2"/>
       <c r="L451" s="4"/>
-      <c r="M451" s="2" t="s">
+      <c r="M451" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N451" s="2" t="s">
@@ -27385,7 +27385,7 @@
       </c>
       <c r="K454" s="2"/>
       <c r="L454" s="4"/>
-      <c r="M454" s="2" t="s">
+      <c r="M454" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N454" s="2" t="s">
@@ -27541,7 +27541,7 @@
         <v>687</v>
       </c>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -27831,7 +27831,7 @@
       </c>
       <c r="K463" s="2"/>
       <c r="L463" s="4"/>
-      <c r="M463" s="2" t="s">
+      <c r="M463" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N463" s="2" t="s">
@@ -27991,7 +27991,7 @@
         <v>689</v>
       </c>
       <c r="L466" s="4"/>
-      <c r="M466" s="2" t="s">
+      <c r="M466" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N466" s="2" t="s">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="K469" s="2"/>
       <c r="L469" s="4"/>
-      <c r="M469" s="2" t="s">
+      <c r="M469" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N469" s="2" t="s">
@@ -28297,7 +28297,7 @@
       </c>
       <c r="K472" s="2"/>
       <c r="L472" s="4"/>
-      <c r="M472" s="2" t="s">
+      <c r="M472" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N472" s="2" t="s">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="K475" s="2"/>
       <c r="L475" s="4"/>
-      <c r="M475" s="2" t="s">
+      <c r="M475" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N475" s="2" t="s">
@@ -28601,7 +28601,7 @@
       </c>
       <c r="K478" s="2"/>
       <c r="L478" s="4"/>
-      <c r="M478" s="2" t="s">
+      <c r="M478" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N478" s="2" t="s">
@@ -28761,7 +28761,7 @@
       </c>
       <c r="K481" s="2"/>
       <c r="L481" s="4"/>
-      <c r="M481" s="2" t="s">
+      <c r="M481" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N481" s="2"/>
